--- a/pag_alleles.xlsx
+++ b/pag_alleles.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csengeswork/Desktop/WGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2DF66EA8-8FB2-CC47-B6C5-DE0386AFFFBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED7DA90-928A-C849-9CDD-F304E5E5FBDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pag_alleles" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.1" hidden="1">pag_alleles!$AC$6:$AI$6</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">pag_alleles!$AC$6:$AI$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="21">
   <si>
     <t>Table 1</t>
   </si>
@@ -96,11 +92,14 @@
   <si>
     <t>second pos G</t>
   </si>
+  <si>
+    <t>percetages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5172,11 +5171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5671,6 +5670,26 @@
       <c r="H10" t="s">
         <v>10</v>
       </c>
+      <c r="M10">
+        <f>M6/$M$9</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="N10">
+        <f>N6/$N$9</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="O10">
+        <f>O6/$O$9</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P10">
+        <f>P6/$P$9</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q10">
+        <f>Q6/$Q$9</f>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -5697,6 +5716,29 @@
       <c r="H11" t="s">
         <v>10</v>
       </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:Q12" si="3">M7/$M$9</f>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N12" si="4">N7/$N$9</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O12" si="5">O7/$O$9</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P12" si="6">P7/$P$9</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q12" si="7">Q7/$Q$9</f>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -5722,6 +5764,26 @@
       </c>
       <c r="H12" t="s">
         <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
